--- a/public/static/theme/import_goods.xlsx
+++ b/public/static/theme/import_goods.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>物品名称</t>
+    <t>工具名称</t>
   </si>
   <si>
-    <t>物品编号</t>
+    <t>工具编号</t>
   </si>
   <si>
-    <t>物品分类ID</t>
+    <t>工具分类ID</t>
+  </si>
+  <si>
+    <t>厂家</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>上次实验日期</t>
+  </si>
+  <si>
+    <t>工具名称1</t>
+  </si>
+  <si>
+    <t>afasf43564dfghf</t>
+  </si>
+  <si>
+    <t>厂家1</t>
+  </si>
+  <si>
+    <t>型号2</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
   </si>
 </sst>
 </file>
@@ -35,10 +59,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -58,9 +82,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,12 +120,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -95,31 +179,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,61 +210,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,61 +234,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,121 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +425,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,21 +471,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -454,26 +481,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,9 +502,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,153 +530,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -661,54 +688,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1004,44 +1031,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="18.1057692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1049,16 +1109,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1066,9 +1126,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/public/static/theme/import_goods.xlsx
+++ b/public/static/theme/import_goods.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>序号</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>上次实验日期</t>
+  </si>
+  <si>
+    <t>使用次数</t>
   </si>
   <si>
     <t>工具名称1</t>
@@ -60,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,19 +85,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -105,7 +123,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,107 +212,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,31 +237,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,151 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,48 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,6 +442,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,11 +472,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,153 +508,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,21 +1036,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="18.1057692307692" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.2115384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:7">
+    <row r="1" ht="21" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1069,28 +1073,34 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/theme/import_goods.xlsx
+++ b/public/static/theme/import_goods.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>序号</t>
   </si>
@@ -42,6 +42,9 @@
     <t>使用次数</t>
   </si>
   <si>
+    <t>工具状态</t>
+  </si>
+  <si>
     <t>工具名称1</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>良好</t>
   </si>
 </sst>
 </file>
@@ -62,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -85,14 +91,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,6 +114,36 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -107,14 +151,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -122,17 +166,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,7 +183,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,70 +203,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +243,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,169 +387,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +434,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,23 +479,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,21 +490,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,15 +511,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -528,153 +519,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,22 +1042,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="18.1057692307692" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.2115384615385" customWidth="1"/>
+    <col min="9" max="9" width="17.9423076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:8">
+    <row r="1" ht="21" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1076,31 +1083,37 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/theme/import_goods.xlsx
+++ b/public/static/theme/import_goods.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>序号</t>
   </si>
@@ -42,9 +42,6 @@
     <t>使用次数</t>
   </si>
   <si>
-    <t>工具状态</t>
-  </si>
-  <si>
     <t>工具名称1</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>2020-05-06</t>
-  </si>
-  <si>
-    <t>良好</t>
   </si>
 </sst>
 </file>
@@ -68,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -92,66 +86,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,6 +99,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -173,6 +115,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -181,54 +145,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,181 +243,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +428,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,41 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,179 +528,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,13 +1036,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
@@ -1058,7 +1052,7 @@
     <col min="9" max="9" width="17.9423076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:9">
+    <row r="1" ht="21" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1083,37 +1077,31 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H2">
         <v>100</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
